--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Csf1-Csf1r.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>259.222432</v>
+        <v>6.177312000000001</v>
       </c>
       <c r="H2">
-        <v>777.667296</v>
+        <v>18.531936</v>
       </c>
       <c r="I2">
-        <v>0.7751755260536969</v>
+        <v>0.1004331027219036</v>
       </c>
       <c r="J2">
-        <v>0.7751755260536969</v>
+        <v>0.1004331027219036</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.98606933333333</v>
+        <v>0.191891</v>
       </c>
       <c r="N2">
-        <v>56.95820799999999</v>
+        <v>0.575673</v>
       </c>
       <c r="O2">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="P2">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="Q2">
-        <v>4921.615066707283</v>
+        <v>1.185370576992</v>
       </c>
       <c r="R2">
-        <v>44294.53560036556</v>
+        <v>10.668335192928</v>
       </c>
       <c r="S2">
-        <v>0.681938027951998</v>
+        <v>0.007197472290321106</v>
       </c>
       <c r="T2">
-        <v>0.681938027951998</v>
+        <v>0.007197472290321106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>259.222432</v>
+        <v>6.177312000000001</v>
       </c>
       <c r="H3">
-        <v>777.667296</v>
+        <v>18.531936</v>
       </c>
       <c r="I3">
-        <v>0.7751755260536969</v>
+        <v>0.1004331027219036</v>
       </c>
       <c r="J3">
-        <v>0.7751755260536969</v>
+        <v>0.1004331027219036</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.367471</v>
       </c>
       <c r="O3">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855653</v>
       </c>
       <c r="P3">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855652</v>
       </c>
       <c r="Q3">
-        <v>290.9746741031573</v>
+        <v>6.933973005984001</v>
       </c>
       <c r="R3">
-        <v>2618.772066928416</v>
+        <v>62.40575705385601</v>
       </c>
       <c r="S3">
-        <v>0.0403173943415766</v>
+        <v>0.04210251168798938</v>
       </c>
       <c r="T3">
-        <v>0.0403173943415766</v>
+        <v>0.04210251168798937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>259.222432</v>
+        <v>6.177312000000001</v>
       </c>
       <c r="H4">
-        <v>777.667296</v>
+        <v>18.531936</v>
       </c>
       <c r="I4">
-        <v>0.7751755260536969</v>
+        <v>0.1004331027219036</v>
       </c>
       <c r="J4">
-        <v>0.7751755260536969</v>
+        <v>0.1004331027219036</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.473366666666666</v>
+        <v>1.363254333333333</v>
       </c>
       <c r="N4">
-        <v>4.4201</v>
+        <v>4.089763</v>
       </c>
       <c r="O4">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="P4">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="Q4">
-        <v>381.9296905610666</v>
+        <v>8.421247352351999</v>
       </c>
       <c r="R4">
-        <v>3437.3672150496</v>
+        <v>75.79122617116801</v>
       </c>
       <c r="S4">
-        <v>0.05292010376012227</v>
+        <v>0.05113311874359318</v>
       </c>
       <c r="T4">
-        <v>0.05292010376012227</v>
+        <v>0.05113311874359318</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>146.07972</v>
       </c>
       <c r="I5">
-        <v>0.1456116572976945</v>
+        <v>0.7916733321519631</v>
       </c>
       <c r="J5">
-        <v>0.1456116572976945</v>
+        <v>0.7916733321519631</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.98606933333333</v>
+        <v>0.191891</v>
       </c>
       <c r="N5">
-        <v>56.95820799999999</v>
+        <v>0.575673</v>
       </c>
       <c r="O5">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="P5">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="Q5">
-        <v>924.4932307046398</v>
+        <v>9.343794516840001</v>
       </c>
       <c r="R5">
-        <v>8320.43907634176</v>
+        <v>84.09415065156</v>
       </c>
       <c r="S5">
-        <v>0.1280976025261323</v>
+        <v>0.05673474896944744</v>
       </c>
       <c r="T5">
-        <v>0.1280976025261323</v>
+        <v>0.05673474896944744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>146.07972</v>
       </c>
       <c r="I6">
-        <v>0.1456116572976945</v>
+        <v>0.7916733321519631</v>
       </c>
       <c r="J6">
-        <v>0.1456116572976945</v>
+        <v>0.7916733321519631</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>3.367471</v>
       </c>
       <c r="O6">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855653</v>
       </c>
       <c r="P6">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855652</v>
       </c>
       <c r="Q6">
         <v>54.65769119868001</v>
@@ -818,10 +818,10 @@
         <v>491.9192207881201</v>
       </c>
       <c r="S6">
-        <v>0.007573359078928138</v>
+        <v>0.3318769889275581</v>
       </c>
       <c r="T6">
-        <v>0.007573359078928137</v>
+        <v>0.3318769889275581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>146.07972</v>
       </c>
       <c r="I7">
-        <v>0.1456116572976945</v>
+        <v>0.7916733321519631</v>
       </c>
       <c r="J7">
-        <v>0.1456116572976945</v>
+        <v>0.7916733321519631</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.473366666666666</v>
+        <v>1.363254333333333</v>
       </c>
       <c r="N7">
-        <v>4.4201</v>
+        <v>4.089763</v>
       </c>
       <c r="O7">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="P7">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="Q7">
-        <v>71.74299670799999</v>
+        <v>66.38127043403999</v>
       </c>
       <c r="R7">
-        <v>645.686970372</v>
+        <v>597.43143390636</v>
       </c>
       <c r="S7">
-        <v>0.009940695692634104</v>
+        <v>0.4030615942549577</v>
       </c>
       <c r="T7">
-        <v>0.009940695692634102</v>
+        <v>0.4030615942549577</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.48914766666666</v>
+        <v>6.636180666666667</v>
       </c>
       <c r="H8">
-        <v>79.46744299999999</v>
+        <v>19.908542</v>
       </c>
       <c r="I8">
-        <v>0.07921281664860853</v>
+        <v>0.1078935651261332</v>
       </c>
       <c r="J8">
-        <v>0.07921281664860852</v>
+        <v>0.1078935651261332</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.98606933333333</v>
+        <v>0.191891</v>
       </c>
       <c r="N8">
-        <v>56.95820799999999</v>
+        <v>0.575673</v>
       </c>
       <c r="O8">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="P8">
-        <v>0.8797207923006068</v>
+        <v>0.07166434268441052</v>
       </c>
       <c r="Q8">
-        <v>502.9247941802381</v>
+        <v>1.273423344307334</v>
       </c>
       <c r="R8">
-        <v>4526.323147622143</v>
+        <v>11.460810098766</v>
       </c>
       <c r="S8">
-        <v>0.0696851618224766</v>
+        <v>0.007732121424641977</v>
       </c>
       <c r="T8">
-        <v>0.06968516182247658</v>
+        <v>0.007732121424641976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.48914766666666</v>
+        <v>6.636180666666667</v>
       </c>
       <c r="H9">
-        <v>79.46744299999999</v>
+        <v>19.908542</v>
       </c>
       <c r="I9">
-        <v>0.07921281664860853</v>
+        <v>0.1078935651261332</v>
       </c>
       <c r="J9">
-        <v>0.07921281664860852</v>
+        <v>0.1078935651261332</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.367471</v>
       </c>
       <c r="O9">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855653</v>
       </c>
       <c r="P9">
-        <v>0.0520106646643328</v>
+        <v>0.4192095090855652</v>
       </c>
       <c r="Q9">
-        <v>29.73381219407255</v>
+        <v>7.449048648586889</v>
       </c>
       <c r="R9">
-        <v>267.604309746653</v>
+        <v>67.041437837282</v>
       </c>
       <c r="S9">
-        <v>0.004119911243828056</v>
+        <v>0.04523000847001778</v>
       </c>
       <c r="T9">
-        <v>0.004119911243828055</v>
+        <v>0.04523000847001777</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.48914766666666</v>
+        <v>6.636180666666667</v>
       </c>
       <c r="H10">
-        <v>79.46744299999999</v>
+        <v>19.908542</v>
       </c>
       <c r="I10">
-        <v>0.07921281664860853</v>
+        <v>0.1078935651261332</v>
       </c>
       <c r="J10">
-        <v>0.07921281664860852</v>
+        <v>0.1078935651261332</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.473366666666666</v>
+        <v>1.363254333333333</v>
       </c>
       <c r="N10">
-        <v>4.4201</v>
+        <v>4.089763</v>
       </c>
       <c r="O10">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="P10">
-        <v>0.06826854303506025</v>
+        <v>0.5091261482300243</v>
       </c>
       <c r="Q10">
-        <v>39.02822720047777</v>
+        <v>9.046802050616222</v>
       </c>
       <c r="R10">
-        <v>351.2540448043</v>
+        <v>81.421218455546</v>
       </c>
       <c r="S10">
-        <v>0.005407743582303869</v>
+        <v>0.05493143523147349</v>
       </c>
       <c r="T10">
-        <v>0.005407743582303868</v>
+        <v>0.05493143523147349</v>
       </c>
     </row>
   </sheetData>
